--- a/[나인와트] 건물별 전력데이터/나인와트vs세움터.xlsx
+++ b/[나인와트] 건물별 전력데이터/나인와트vs세움터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeon\Desktop\[GRI] GitHub\platForm\[나인와트] 건물별 전력데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6362C-1106-4EC2-9E09-353F34D606BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CDFA1-6F66-4397-90CF-33AB1195CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{A8C89716-2C9C-4723-B830-F831591F7917}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A8C89716-2C9C-4723-B830-F831591F7917}"/>
   </bookViews>
   <sheets>
     <sheet name="비교" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="132">
   <si>
     <t>나인와트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -576,6 +576,14 @@
   </si>
   <si>
     <t>전력사용량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 전력사용량 (TWh)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역에너지통계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +768,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1045,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,8 +1062,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,9 +1160,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1341,14 +1355,36 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
     <cellStyle name="쉼표 [0] 3 4" xfId="3" xr:uid="{4EFEAD1A-93DF-4808-BFA8-5AEB0C06AD43}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 48" xfId="2" xr:uid="{68CAABD8-C9E8-4866-B0DD-6056724B554D}"/>
     <cellStyle name="표준_ydb28c" xfId="5" xr:uid="{EEEF50F9-D610-40A6-8147-CF99B4A9EED2}"/>
-    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1470,7 +1506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1786,47 +1822,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879332F-26BF-447E-B463-730EE6D2AA33}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>35.78</v>
+      </c>
+      <c r="D5" s="31">
+        <f>지역에너지통계연보!H190</f>
+        <v>124.71140912999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6" s="102">
+        <f>C5/D5</f>
+        <v>0.28690237925788081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="B4">
+      <c r="B12">
         <v>0.92</v>
       </c>
-      <c r="C4">
+      <c r="C12">
         <v>1.66</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D12" s="31">
         <f>'안양시 수급통계'!X28</f>
         <v>2.6712830699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="102">
+        <f>C12/D12</f>
+        <v>0.62142422068358338</v>
       </c>
     </row>
   </sheetData>
@@ -1840,22 +1916,22 @@
   <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="3"/>
-    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="13.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="3"/>
+    <col min="8" max="8" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1865,7 +1941,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1875,7 +1951,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1883,12 +1959,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -1906,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -1924,7 +2000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>1996</v>
       </c>
@@ -1944,7 +2020,7 @@
         <v>904.45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>1997</v>
       </c>
@@ -1964,7 +2040,7 @@
         <v>1016.828</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>1998</v>
       </c>
@@ -1984,7 +2060,7 @@
         <v>1021.657</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>1999</v>
       </c>
@@ -2004,7 +2080,7 @@
         <v>1086.405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="18">
         <v>2000</v>
       </c>
@@ -2024,7 +2100,7 @@
         <v>1159.7639999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="19">
         <v>2001</v>
       </c>
@@ -2044,7 +2120,7 @@
         <v>1287.9780000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>2002</v>
       </c>
@@ -2064,7 +2140,7 @@
         <v>1469.5830000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>2003</v>
       </c>
@@ -2084,7 +2160,7 @@
         <v>1530.6469999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>2004</v>
       </c>
@@ -2104,7 +2180,7 @@
         <v>1657.98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>2005</v>
       </c>
@@ -2124,7 +2200,7 @@
         <v>1784.6079999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>2006</v>
       </c>
@@ -2144,7 +2220,7 @@
         <v>1868.35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>2007</v>
       </c>
@@ -2164,7 +2240,7 @@
         <v>1959.925</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>2008</v>
       </c>
@@ -2184,7 +2260,7 @@
         <v>2038.7149999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>2009</v>
       </c>
@@ -2204,7 +2280,7 @@
         <v>2138.16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>2010</v>
       </c>
@@ -2230,7 +2306,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A22" s="24">
         <v>2011</v>
       </c>
@@ -2256,7 +2332,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2358,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
@@ -2308,7 +2384,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -2334,7 +2410,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
@@ -2360,7 +2436,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2462,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2488,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2514,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A30" s="24" t="s">
         <v>22</v>
       </c>
@@ -2464,7 +2540,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2566,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
         <v>24</v>
       </c>
@@ -2516,7 +2592,7 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A33" s="24" t="s">
         <v>25</v>
       </c>
@@ -2542,7 +2618,7 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A34" s="24" t="s">
         <v>26</v>
       </c>
@@ -2568,7 +2644,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A35" s="24" t="s">
         <v>27</v>
       </c>
@@ -2594,7 +2670,7 @@
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2696,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
@@ -2646,7 +2722,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2748,7 @@
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A39" s="25">
         <v>2012</v>
       </c>
@@ -2698,7 +2774,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A40" s="24" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2800,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A41" s="24" t="s">
         <v>16</v>
       </c>
@@ -2750,7 +2826,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A42" s="24" t="s">
         <v>17</v>
       </c>
@@ -2776,7 +2852,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A43" s="24" t="s">
         <v>18</v>
       </c>
@@ -2802,7 +2878,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A44" s="24" t="s">
         <v>19</v>
       </c>
@@ -2828,7 +2904,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A45" s="24" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2930,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A46" s="24" t="s">
         <v>21</v>
       </c>
@@ -2880,7 +2956,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A47" s="24" t="s">
         <v>22</v>
       </c>
@@ -2906,7 +2982,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A48" s="24" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +3008,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A49" s="24" t="s">
         <v>24</v>
       </c>
@@ -2958,7 +3034,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2984,7 +3060,7 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A51" s="24" t="s">
         <v>26</v>
       </c>
@@ -3010,7 +3086,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A52" s="24" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +3112,7 @@
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A53" s="24" t="s">
         <v>28</v>
       </c>
@@ -3062,7 +3138,7 @@
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A54" s="24" t="s">
         <v>29</v>
       </c>
@@ -3088,7 +3164,7 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A55" s="24" t="s">
         <v>30</v>
       </c>
@@ -3114,7 +3190,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A56" s="25">
         <v>2013</v>
       </c>
@@ -3140,7 +3216,7 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A57" s="24" t="s">
         <v>15</v>
       </c>
@@ -3166,7 +3242,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.45">
       <c r="A58" s="24" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3268,7 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="24" t="s">
         <v>17</v>
       </c>
@@ -3212,7 +3288,7 @@
         <v>78.951999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -3232,7 +3308,7 @@
         <v>95.962000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="24" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3328,7 @@
         <v>47.536000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="24" t="s">
         <v>20</v>
       </c>
@@ -3272,7 +3348,7 @@
         <v>94.313999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="24" t="s">
         <v>21</v>
       </c>
@@ -3292,7 +3368,7 @@
         <v>87.888999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="24" t="s">
         <v>22</v>
       </c>
@@ -3312,7 +3388,7 @@
         <v>578.30600000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="24" t="s">
         <v>23</v>
       </c>
@@ -3332,7 +3408,7 @@
         <v>130.477</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="24" t="s">
         <v>24</v>
       </c>
@@ -3352,7 +3428,7 @@
         <v>121.52800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="24" t="s">
         <v>31</v>
       </c>
@@ -3372,7 +3448,7 @@
         <v>122.203</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="24" t="s">
         <v>26</v>
       </c>
@@ -3392,7 +3468,7 @@
         <v>91.052000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="24" t="s">
         <v>27</v>
       </c>
@@ -3412,7 +3488,7 @@
         <v>94.197000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="24" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3508,7 @@
         <v>223.387</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="24" t="s">
         <v>29</v>
       </c>
@@ -3452,7 +3528,7 @@
         <v>154.90899999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="24" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +3548,7 @@
         <v>38.225000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="25">
         <v>2014</v>
       </c>
@@ -3492,7 +3568,7 @@
         <v>2437.924</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="24" t="s">
         <v>15</v>
       </c>
@@ -3512,7 +3588,7 @@
         <v>365.779</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="24" t="s">
         <v>32</v>
       </c>
@@ -3532,7 +3608,7 @@
         <v>127.503</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="24" t="s">
         <v>33</v>
       </c>
@@ -3552,7 +3628,7 @@
         <v>79.057000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="24" t="s">
         <v>34</v>
       </c>
@@ -3572,7 +3648,7 @@
         <v>97.822999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="24" t="s">
         <v>35</v>
       </c>
@@ -3592,7 +3668,7 @@
         <v>46.06</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="24" t="s">
         <v>36</v>
       </c>
@@ -3612,7 +3688,7 @@
         <v>94.603999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="24" t="s">
         <v>37</v>
       </c>
@@ -3632,7 +3708,7 @@
         <v>66.159000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="24" t="s">
         <v>38</v>
       </c>
@@ -3652,7 +3728,7 @@
         <v>22.068000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="24" t="s">
         <v>39</v>
       </c>
@@ -3672,7 +3748,7 @@
         <v>568.88</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
@@ -3692,7 +3768,7 @@
         <v>130.41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="24" t="s">
         <v>41</v>
       </c>
@@ -3712,7 +3788,7 @@
         <v>120.381</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="24" t="s">
         <v>31</v>
       </c>
@@ -3732,7 +3808,7 @@
         <v>121.14100000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="24" t="s">
         <v>42</v>
       </c>
@@ -3752,7 +3828,7 @@
         <v>91.224999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="24" t="s">
         <v>43</v>
       </c>
@@ -3772,7 +3848,7 @@
         <v>95.289000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="24" t="s">
         <v>44</v>
       </c>
@@ -3792,7 +3868,7 @@
         <v>218.14500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="24" t="s">
         <v>45</v>
       </c>
@@ -3812,7 +3888,7 @@
         <v>154.768</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="24" t="s">
         <v>46</v>
       </c>
@@ -3832,7 +3908,7 @@
         <v>38.222000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="25">
         <v>2015</v>
       </c>
@@ -3852,7 +3928,7 @@
         <v>2539.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="24" t="s">
         <v>15</v>
       </c>
@@ -3872,7 +3948,7 @@
         <v>373.31799999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="24" t="s">
         <v>32</v>
       </c>
@@ -3892,7 +3968,7 @@
         <v>127.259</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="24" t="s">
         <v>33</v>
       </c>
@@ -3912,7 +3988,7 @@
         <v>81.364000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="24" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +4008,7 @@
         <v>105.76600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="24" t="s">
         <v>35</v>
       </c>
@@ -3952,7 +4028,7 @@
         <v>48.554000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="24" t="s">
         <v>36</v>
       </c>
@@ -3972,7 +4048,7 @@
         <v>91.070999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="24" t="s">
         <v>37</v>
       </c>
@@ -3992,7 +4068,7 @@
         <v>71.296999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="24" t="s">
         <v>38</v>
       </c>
@@ -4012,7 +4088,7 @@
         <v>26.901</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="24" t="s">
         <v>39</v>
       </c>
@@ -4032,7 +4108,7 @@
         <v>573.75400000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="24" t="s">
         <v>40</v>
       </c>
@@ -4052,7 +4128,7 @@
         <v>137.43899999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="24" t="s">
         <v>41</v>
       </c>
@@ -4072,7 +4148,7 @@
         <v>125.696</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="24" t="s">
         <v>31</v>
       </c>
@@ -4092,7 +4168,7 @@
         <v>145.02600000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="24" t="s">
         <v>42</v>
       </c>
@@ -4112,7 +4188,7 @@
         <v>99.444999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="24" t="s">
         <v>43</v>
       </c>
@@ -4132,7 +4208,7 @@
         <v>103.654</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="24" t="s">
         <v>44</v>
       </c>
@@ -4152,7 +4228,7 @@
         <v>230.05799999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="24" t="s">
         <v>45</v>
       </c>
@@ -4172,7 +4248,7 @@
         <v>158.626</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="24" t="s">
         <v>46</v>
       </c>
@@ -4192,7 +4268,7 @@
         <v>39.918999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="25">
         <v>2016</v>
       </c>
@@ -4212,7 +4288,7 @@
         <v>2645.991</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="24" t="s">
         <v>15</v>
       </c>
@@ -4232,7 +4308,7 @@
         <v>377.94799999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="24" t="s">
         <v>32</v>
       </c>
@@ -4252,7 +4328,7 @@
         <v>133.09299999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="24" t="s">
         <v>33</v>
       </c>
@@ -4272,7 +4348,7 @@
         <v>84.451999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="24" t="s">
         <v>34</v>
       </c>
@@ -4292,7 +4368,7 @@
         <v>104.535</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="24" t="s">
         <v>35</v>
       </c>
@@ -4312,7 +4388,7 @@
         <v>51.265999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="24" t="s">
         <v>36</v>
       </c>
@@ -4332,7 +4408,7 @@
         <v>91.117000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="24" t="s">
         <v>37</v>
       </c>
@@ -4352,7 +4428,7 @@
         <v>91.076999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="24" t="s">
         <v>38</v>
       </c>
@@ -4372,7 +4448,7 @@
         <v>29.553000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="24" t="s">
         <v>39</v>
       </c>
@@ -4392,7 +4468,7 @@
         <v>595.61199999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="24" t="s">
         <v>40</v>
       </c>
@@ -4412,7 +4488,7 @@
         <v>139.58000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="24" t="s">
         <v>41</v>
       </c>
@@ -4432,7 +4508,7 @@
         <v>127.78400000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="24" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4528,7 @@
         <v>162.32300000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="24" t="s">
         <v>42</v>
       </c>
@@ -4472,7 +4548,7 @@
         <v>105.18</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="24" t="s">
         <v>43</v>
       </c>
@@ -4492,7 +4568,7 @@
         <v>108.199</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="24" t="s">
         <v>44</v>
       </c>
@@ -4512,7 +4588,7 @@
         <v>236.95500000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="24" t="s">
         <v>45</v>
       </c>
@@ -4532,7 +4608,7 @@
         <v>164.20699999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="24" t="s">
         <v>46</v>
       </c>
@@ -4552,7 +4628,7 @@
         <v>43.064</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="25">
         <v>2017</v>
       </c>
@@ -4572,7 +4648,7 @@
         <v>2693.652</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="24" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4668,7 @@
         <v>372.488</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="24" t="s">
         <v>32</v>
       </c>
@@ -4612,7 +4688,7 @@
         <v>142.48599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="24" t="s">
         <v>33</v>
       </c>
@@ -4632,7 +4708,7 @@
         <v>88.960999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="24" t="s">
         <v>34</v>
       </c>
@@ -4652,7 +4728,7 @@
         <v>107.983</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="24" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4748,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="24" t="s">
         <v>36</v>
       </c>
@@ -4692,7 +4768,7 @@
         <v>91.522999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="24" t="s">
         <v>37</v>
       </c>
@@ -4712,7 +4788,7 @@
         <v>75.614999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="24" t="s">
         <v>38</v>
       </c>
@@ -4732,7 +4808,7 @@
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="24" t="s">
         <v>39</v>
       </c>
@@ -4752,7 +4828,7 @@
         <v>619.60699999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="24" t="s">
         <v>40</v>
       </c>
@@ -4772,7 +4848,7 @@
         <v>143.37</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="24" t="s">
         <v>41</v>
       </c>
@@ -4792,7 +4868,7 @@
         <v>134.31299999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="24" t="s">
         <v>31</v>
       </c>
@@ -4812,7 +4888,7 @@
         <v>139.86500000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="24" t="s">
         <v>42</v>
       </c>
@@ -4832,7 +4908,7 @@
         <v>108.99299999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="24" t="s">
         <v>43</v>
       </c>
@@ -4852,7 +4928,7 @@
         <v>110.104</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="24" t="s">
         <v>44</v>
       </c>
@@ -4872,7 +4948,7 @@
         <v>256.86099999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="24" t="s">
         <v>45</v>
       </c>
@@ -4892,7 +4968,7 @@
         <v>170.76900000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="24" t="s">
         <v>46</v>
       </c>
@@ -4912,7 +4988,7 @@
         <v>45.704000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="25">
         <v>2018</v>
       </c>
@@ -4932,7 +5008,7 @@
         <v>2783.9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="24" t="s">
         <v>15</v>
       </c>
@@ -4952,7 +5028,7 @@
         <v>387.48099999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="24" t="s">
         <v>32</v>
       </c>
@@ -4972,7 +5048,7 @@
         <v>147.18199999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="24" t="s">
         <v>33</v>
       </c>
@@ -4992,7 +5068,7 @@
         <v>92.792000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="24" t="s">
         <v>34</v>
       </c>
@@ -5012,7 +5088,7 @@
         <v>110.756</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="24" t="s">
         <v>35</v>
       </c>
@@ -5032,7 +5108,7 @@
         <v>54.021999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="24" t="s">
         <v>36</v>
       </c>
@@ -5052,7 +5128,7 @@
         <v>98.308999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="24" t="s">
         <v>37</v>
       </c>
@@ -5072,7 +5148,7 @@
         <v>83.522999999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="24" t="s">
         <v>38</v>
       </c>
@@ -5092,7 +5168,7 @@
         <v>33.637999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="24" t="s">
         <v>39</v>
       </c>
@@ -5112,7 +5188,7 @@
         <v>648.26099999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="24" t="s">
         <v>40</v>
       </c>
@@ -5132,7 +5208,7 @@
         <v>151.857</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="24" t="s">
         <v>41</v>
       </c>
@@ -5152,7 +5228,7 @@
         <v>138.797</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="24" t="s">
         <v>31</v>
       </c>
@@ -5172,7 +5248,7 @@
         <v>131.97</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="24" t="s">
         <v>42</v>
       </c>
@@ -5192,7 +5268,7 @@
         <v>112.13500000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="24" t="s">
         <v>43</v>
       </c>
@@ -5212,7 +5288,7 @@
         <v>112.645</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="24" t="s">
         <v>44</v>
       </c>
@@ -5232,7 +5308,7 @@
         <v>259.226</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="24" t="s">
         <v>45</v>
       </c>
@@ -5252,7 +5328,7 @@
         <v>173.55799999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="24" t="s">
         <v>46</v>
       </c>
@@ -5272,7 +5348,7 @@
         <v>47.670999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="25">
         <v>2019</v>
       </c>
@@ -5292,7 +5368,7 @@
         <v>2765.7730000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="24" t="s">
         <v>15</v>
       </c>
@@ -5312,7 +5388,7 @@
         <v>384.202</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="24" t="s">
         <v>32</v>
       </c>
@@ -5332,7 +5408,7 @@
         <v>140.685</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="24" t="s">
         <v>33</v>
       </c>
@@ -5352,7 +5428,7 @@
         <v>91.052000000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="24" t="s">
         <v>34</v>
       </c>
@@ -5372,7 +5448,7 @@
         <v>107.422</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="24" t="s">
         <v>35</v>
       </c>
@@ -5392,7 +5468,7 @@
         <v>53.853999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="24" t="s">
         <v>36</v>
       </c>
@@ -5412,7 +5488,7 @@
         <v>99.263999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="24" t="s">
         <v>37</v>
       </c>
@@ -5432,7 +5508,7 @@
         <v>81.593000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="24" t="s">
         <v>38</v>
       </c>
@@ -5452,7 +5528,7 @@
         <v>-2.1909999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="24" t="s">
         <v>39</v>
       </c>
@@ -5472,7 +5548,7 @@
         <v>689.78599999999994</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="24" t="s">
         <v>40</v>
       </c>
@@ -5492,7 +5568,7 @@
         <v>146.02799999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="24" t="s">
         <v>41</v>
       </c>
@@ -5512,7 +5588,7 @@
         <v>140.19200000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="24" t="s">
         <v>31</v>
       </c>
@@ -5532,7 +5608,7 @@
         <v>132.11000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="24" t="s">
         <v>42</v>
       </c>
@@ -5552,7 +5628,7 @@
         <v>110.52200000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="24" t="s">
         <v>43</v>
       </c>
@@ -5572,7 +5648,7 @@
         <v>112.682</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="24" t="s">
         <v>44</v>
       </c>
@@ -5592,7 +5668,7 @@
         <v>259.52699999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="24" t="s">
         <v>45</v>
       </c>
@@ -5618,7 +5694,7 @@
         <v>1.163E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="26" t="s">
         <v>46</v>
       </c>
@@ -5638,7 +5714,7 @@
         <v>47.587000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="25">
         <v>2020</v>
       </c>
@@ -5658,7 +5734,7 @@
         <v>2495.7930000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="24" t="s">
         <v>47</v>
       </c>
@@ -5678,7 +5754,7 @@
         <v>481.517</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="24" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5774,7 @@
         <v>160.28800000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="24" t="s">
         <v>17</v>
       </c>
@@ -5718,7 +5794,7 @@
         <v>116.164</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="24" t="s">
         <v>18</v>
       </c>
@@ -5738,7 +5814,7 @@
         <v>113.753</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="24" t="s">
         <v>19</v>
       </c>
@@ -5758,7 +5834,7 @@
         <v>71.161000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="24" t="s">
         <v>20</v>
       </c>
@@ -5778,7 +5854,7 @@
         <v>126.831</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A188" s="24" t="s">
         <v>21</v>
       </c>
@@ -5801,7 +5877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="24" t="s">
         <v>48</v>
       </c>
@@ -5836,47 +5912,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" s="24" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A190" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="97">
         <v>10723.251</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="98">
         <v>5543.9690000000001</v>
       </c>
-      <c r="D190" s="17">
+      <c r="D190" s="98">
         <v>84.989000000000004</v>
       </c>
-      <c r="E190" s="17">
+      <c r="E190" s="98">
         <v>4298.6469999999999</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="98">
         <v>795.64599999999996</v>
       </c>
-      <c r="H190" s="31">
+      <c r="G190" s="99"/>
+      <c r="H190" s="100">
         <f>B190*$I$179</f>
         <v>124.71140912999999</v>
       </c>
-      <c r="I190" s="31">
+      <c r="I190" s="100">
         <f t="shared" ref="I190:L190" si="0">C190*$I$179</f>
         <v>64.476359470000006</v>
       </c>
-      <c r="J190" s="31">
+      <c r="J190" s="100">
         <f t="shared" si="0"/>
         <v>0.98842207000000004</v>
       </c>
-      <c r="K190" s="31">
+      <c r="K190" s="100">
         <f t="shared" si="0"/>
         <v>49.993264609999997</v>
       </c>
-      <c r="L190" s="31">
+      <c r="L190" s="100">
         <f t="shared" si="0"/>
         <v>9.2533629799999986</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="24" t="s">
         <v>23</v>
       </c>
@@ -5896,7 +5973,7 @@
         <v>158.72399999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="24" t="s">
         <v>24</v>
       </c>
@@ -5916,7 +5993,7 @@
         <v>157.93100000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="24" t="s">
         <v>25</v>
       </c>
@@ -5936,7 +6013,7 @@
         <v>150.61099999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="24" t="s">
         <v>26</v>
       </c>
@@ -5956,7 +6033,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="24" t="s">
         <v>27</v>
       </c>
@@ -5976,7 +6053,7 @@
         <v>144.20699999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="24" t="s">
         <v>28</v>
       </c>
@@ -5996,7 +6073,7 @@
         <v>217.37299999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="24" t="s">
         <v>29</v>
       </c>
@@ -6016,7 +6093,7 @@
         <v>197.04599999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="26" t="s">
         <v>30</v>
       </c>
@@ -6036,7 +6113,7 @@
         <v>50.954999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="24">
         <v>2021</v>
       </c>
@@ -6056,7 +6133,7 @@
         <v>3398.3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="24" t="s">
         <v>47</v>
       </c>
@@ -6076,7 +6153,7 @@
         <v>503.02300000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="24" t="s">
         <v>32</v>
       </c>
@@ -6096,7 +6173,7 @@
         <v>170.22399999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="24" t="s">
         <v>33</v>
       </c>
@@ -6116,7 +6193,7 @@
         <v>124.53400000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="24" t="s">
         <v>34</v>
       </c>
@@ -6136,7 +6213,7 @@
         <v>124.834</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="24" t="s">
         <v>35</v>
       </c>
@@ -6156,7 +6233,7 @@
         <v>77.986999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="24" t="s">
         <v>36</v>
       </c>
@@ -6176,7 +6253,7 @@
         <v>137.27799999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="24" t="s">
         <v>37</v>
       </c>
@@ -6196,7 +6273,7 @@
         <v>73.597999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="24" t="s">
         <v>38</v>
       </c>
@@ -6216,7 +6293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="24" t="s">
         <v>39</v>
       </c>
@@ -6236,7 +6313,7 @@
         <v>835.29300000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="24" t="s">
         <v>40</v>
       </c>
@@ -6256,7 +6333,7 @@
         <v>170.37899999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="24" t="s">
         <v>41</v>
       </c>
@@ -6276,7 +6353,7 @@
         <v>170.773</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="24" t="s">
         <v>31</v>
       </c>
@@ -6296,7 +6373,7 @@
         <v>160.928</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="24" t="s">
         <v>42</v>
       </c>
@@ -6316,7 +6393,7 @@
         <v>141.91300000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="24" t="s">
         <v>43</v>
       </c>
@@ -6336,7 +6413,7 @@
         <v>166.815</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="24" t="s">
         <v>44</v>
       </c>
@@ -6356,7 +6433,7 @@
         <v>234.91</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="24" t="s">
         <v>45</v>
       </c>
@@ -6376,7 +6453,7 @@
         <v>209.26900000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="24" t="s">
         <v>46</v>
       </c>
@@ -6396,7 +6473,7 @@
         <v>53.540999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="25">
         <v>2022</v>
       </c>
@@ -6416,7 +6493,7 @@
         <v>3550.654</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="24" t="s">
         <v>47</v>
       </c>
@@ -6436,7 +6513,7 @@
         <v>526.77099999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="24" t="s">
         <v>32</v>
       </c>
@@ -6456,7 +6533,7 @@
         <v>175.77600000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="24" t="s">
         <v>33</v>
       </c>
@@ -6476,7 +6553,7 @@
         <v>128.86799999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="24" t="s">
         <v>34</v>
       </c>
@@ -6496,7 +6573,7 @@
         <v>137.67400000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="24" t="s">
         <v>35</v>
       </c>
@@ -6516,7 +6593,7 @@
         <v>81.757999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="24" t="s">
         <v>36</v>
       </c>
@@ -6536,7 +6613,7 @@
         <v>147.398</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="24" t="s">
         <v>37</v>
       </c>
@@ -6556,7 +6633,7 @@
         <v>77.509</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="24" t="s">
         <v>38</v>
       </c>
@@ -6576,7 +6653,7 @@
         <v>45.981000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="24" t="s">
         <v>39</v>
       </c>
@@ -6596,7 +6673,7 @@
         <v>860.63800000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="24" t="s">
         <v>40</v>
       </c>
@@ -6616,7 +6693,7 @@
         <v>179.57</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="24" t="s">
         <v>41</v>
       </c>
@@ -6636,7 +6713,7 @@
         <v>177.988</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" s="24" t="s">
         <v>31</v>
       </c>
@@ -6656,7 +6733,7 @@
         <v>171.45599999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="24" t="s">
         <v>42</v>
       </c>
@@ -6676,7 +6753,7 @@
         <v>146.322</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="24" t="s">
         <v>43</v>
       </c>
@@ -6696,7 +6773,7 @@
         <v>168.59800000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="24" t="s">
         <v>44</v>
       </c>
@@ -6716,7 +6793,7 @@
         <v>246.12799999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="24" t="s">
         <v>45</v>
       </c>
@@ -6736,7 +6813,7 @@
         <v>221.20099999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="27" t="s">
         <v>46</v>
       </c>
@@ -6756,7 +6833,7 @@
         <v>57.017000000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>49</v>
       </c>
@@ -6764,7 +6841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>51</v>
       </c>
@@ -6784,27 +6861,27 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.375" style="35" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="35" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="35" customWidth="1"/>
-    <col min="12" max="14" width="10.375" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="36" customWidth="1"/>
-    <col min="16" max="26" width="10.375" style="35" customWidth="1"/>
-    <col min="27" max="16384" width="10.75" style="35"/>
+    <col min="1" max="1" width="21.58203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.33203125" style="34" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="34" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="34" customWidth="1"/>
+    <col min="12" max="14" width="10.33203125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="35" customWidth="1"/>
+    <col min="16" max="26" width="10.33203125" style="34" customWidth="1"/>
+    <col min="27" max="16384" width="10.75" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>97</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -6814,1632 +6891,1632 @@
         <v>1.163E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-    </row>
-    <row r="3" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+    </row>
+    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="49" t="s">
+      <c r="Y4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="50" t="s">
+      <c r="AA4" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="52" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="52" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56" t="s">
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="57"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="60" t="s">
+      <c r="L6" s="57"/>
+      <c r="M6" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="60" t="s">
+      <c r="R6" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="60" t="s">
+      <c r="S6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="60" t="s">
+      <c r="T6" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="62"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64" t="s">
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="61"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="66" t="s">
+      <c r="Q7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="66" t="s">
+      <c r="R7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="66" t="s">
+      <c r="S7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="66" t="s">
+      <c r="T7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="U7" s="66" t="s">
+      <c r="U7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="W7" s="66" t="s">
+      <c r="W7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="66" t="s">
+      <c r="X7" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="Y7" s="66" t="s">
+      <c r="Y7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="66" t="s">
+      <c r="Z7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="65" t="s">
+      <c r="AA7" s="64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:27" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="67">
         <v>1990.2080000000001</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <v>1280.268</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="67">
         <v>539.04499999999996</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>17.268000000000001</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>684.14700000000005</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <v>2.3620000000000001</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <v>0.158</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <v>37.287999999999997</v>
       </c>
-      <c r="J8" s="68">
-        <v>0</v>
-      </c>
-      <c r="K8" s="68">
-        <v>0</v>
-      </c>
-      <c r="L8" s="68">
+      <c r="J8" s="67">
+        <v>0</v>
+      </c>
+      <c r="K8" s="67">
+        <v>0</v>
+      </c>
+      <c r="L8" s="67">
         <v>582.78599999999994</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="67">
         <v>381.10599999999999</v>
       </c>
-      <c r="N8" s="68">
+      <c r="N8" s="67">
         <v>201.68</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="68">
         <v>127.154</v>
       </c>
-      <c r="P8" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="68">
+      <c r="P8" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="67">
         <v>89.39</v>
       </c>
-      <c r="R8" s="68">
+      <c r="R8" s="67">
         <v>36.792999999999999</v>
       </c>
-      <c r="S8" s="68">
-        <v>0</v>
-      </c>
-      <c r="T8" s="68">
-        <v>0</v>
-      </c>
-      <c r="U8" s="68">
-        <v>0</v>
-      </c>
-      <c r="V8" s="68">
+      <c r="S8" s="67">
+        <v>0</v>
+      </c>
+      <c r="T8" s="67">
+        <v>0</v>
+      </c>
+      <c r="U8" s="67">
+        <v>0</v>
+      </c>
+      <c r="V8" s="67">
         <v>0.97099999999999997</v>
       </c>
-      <c r="W8" s="68">
+      <c r="W8" s="67">
         <v>160.059</v>
       </c>
-      <c r="X8" s="68">
+      <c r="X8" s="67">
         <v>2670.8040000000001</v>
       </c>
-      <c r="Y8" s="68">
+      <c r="Y8" s="67">
         <v>64.367999999999995</v>
       </c>
-      <c r="Z8" s="70">
+      <c r="Z8" s="69">
         <v>26.428999999999998</v>
       </c>
-      <c r="AA8" s="68">
+      <c r="AA8" s="67">
         <v>730.49699999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="67">
         <v>371.68299999999999</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>72.108999999999995</v>
       </c>
-      <c r="D9" s="68">
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
         <v>2.2879999999999998</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="67">
         <v>30.013000000000002</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <v>2.3620000000000001</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="67">
         <v>0.158</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <v>37.287999999999997</v>
       </c>
-      <c r="J9" s="68">
-        <v>0</v>
-      </c>
-      <c r="K9" s="68">
-        <v>0</v>
-      </c>
-      <c r="L9" s="68">
+      <c r="J9" s="67">
+        <v>0</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0</v>
+      </c>
+      <c r="L9" s="67">
         <v>204.82300000000001</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="67">
         <v>204.583</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="67">
         <v>0.24</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="68">
         <v>94.751000000000005</v>
       </c>
-      <c r="P9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="68">
+      <c r="P9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="67">
         <v>57.140999999999998</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="67">
         <v>36.792999999999999</v>
       </c>
-      <c r="S9" s="68">
-        <v>0</v>
-      </c>
-      <c r="T9" s="68">
-        <v>0</v>
-      </c>
-      <c r="U9" s="68">
-        <v>0</v>
-      </c>
-      <c r="V9" s="68">
+      <c r="S9" s="67">
+        <v>0</v>
+      </c>
+      <c r="T9" s="67">
+        <v>0</v>
+      </c>
+      <c r="U9" s="67">
+        <v>0</v>
+      </c>
+      <c r="V9" s="67">
         <v>0.81699999999999995</v>
       </c>
-      <c r="W9" s="68">
+      <c r="W9" s="67">
         <v>13.465</v>
       </c>
-      <c r="X9" s="68">
+      <c r="X9" s="67">
         <v>345.202</v>
       </c>
-      <c r="Y9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="73">
+      <c r="Y9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="72">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AA9" s="68">
+      <c r="AA9" s="67">
         <v>87.905000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="67">
         <v>1379.4690000000001</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>1184.229</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>538.40099999999995</v>
       </c>
-      <c r="E10" s="68">
-        <v>0</v>
-      </c>
-      <c r="F10" s="68">
+      <c r="E10" s="67">
+        <v>0</v>
+      </c>
+      <c r="F10" s="67">
         <v>645.82799999999997</v>
       </c>
-      <c r="G10" s="68">
-        <v>0</v>
-      </c>
-      <c r="H10" s="68">
-        <v>0</v>
-      </c>
-      <c r="I10" s="68">
-        <v>0</v>
-      </c>
-      <c r="J10" s="68">
-        <v>0</v>
-      </c>
-      <c r="K10" s="68">
-        <v>0</v>
-      </c>
-      <c r="L10" s="68">
+      <c r="G10" s="67">
+        <v>0</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0</v>
+      </c>
+      <c r="J10" s="67">
+        <v>0</v>
+      </c>
+      <c r="K10" s="67">
+        <v>0</v>
+      </c>
+      <c r="L10" s="67">
         <v>195.24</v>
       </c>
-      <c r="M10" s="68">
-        <v>0</v>
-      </c>
-      <c r="N10" s="68">
+      <c r="M10" s="67">
+        <v>0</v>
+      </c>
+      <c r="N10" s="67">
         <v>195.24</v>
       </c>
-      <c r="O10" s="69">
-        <v>0</v>
-      </c>
-      <c r="P10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="68">
-        <v>0</v>
-      </c>
-      <c r="R10" s="68">
-        <v>0</v>
-      </c>
-      <c r="S10" s="68">
-        <v>0</v>
-      </c>
-      <c r="T10" s="68">
-        <v>0</v>
-      </c>
-      <c r="U10" s="68">
-        <v>0</v>
-      </c>
-      <c r="V10" s="68">
-        <v>0</v>
-      </c>
-      <c r="W10" s="68">
+      <c r="O10" s="68">
+        <v>0</v>
+      </c>
+      <c r="P10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>0</v>
+      </c>
+      <c r="R10" s="67">
+        <v>0</v>
+      </c>
+      <c r="S10" s="67">
+        <v>0</v>
+      </c>
+      <c r="T10" s="67">
+        <v>0</v>
+      </c>
+      <c r="U10" s="67">
+        <v>0</v>
+      </c>
+      <c r="V10" s="67">
+        <v>0</v>
+      </c>
+      <c r="W10" s="67">
         <v>8.2910000000000004</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <v>1.2749999999999999</v>
       </c>
-      <c r="Y10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="68">
+      <c r="Y10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="67">
         <v>5.5140000000000002</v>
       </c>
-      <c r="AA10" s="68">
+      <c r="AA10" s="67">
         <v>194.69200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:27" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="67">
         <v>32.005000000000003</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>16.068999999999999</v>
       </c>
-      <c r="D11" s="70">
-        <v>0</v>
-      </c>
-      <c r="E11" s="70">
+      <c r="D11" s="69">
+        <v>0</v>
+      </c>
+      <c r="E11" s="69">
         <v>9.0869999999999997</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>6.9820000000000002</v>
       </c>
-      <c r="G11" s="70">
-        <v>0</v>
-      </c>
-      <c r="H11" s="70">
-        <v>0</v>
-      </c>
-      <c r="I11" s="70">
-        <v>0</v>
-      </c>
-      <c r="J11" s="70">
-        <v>0</v>
-      </c>
-      <c r="K11" s="70">
-        <v>0</v>
-      </c>
-      <c r="L11" s="68">
+      <c r="G11" s="69">
+        <v>0</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0</v>
+      </c>
+      <c r="I11" s="69">
+        <v>0</v>
+      </c>
+      <c r="J11" s="69">
+        <v>0</v>
+      </c>
+      <c r="K11" s="69">
+        <v>0</v>
+      </c>
+      <c r="L11" s="67">
         <v>14.901</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="69">
         <v>14.273</v>
       </c>
-      <c r="N11" s="70">
+      <c r="N11" s="69">
         <v>0.628</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="68">
         <v>1.034</v>
       </c>
-      <c r="P11" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="70">
+      <c r="P11" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="69">
         <v>1.034</v>
       </c>
-      <c r="R11" s="70">
-        <v>0</v>
-      </c>
-      <c r="S11" s="70">
-        <v>0</v>
-      </c>
-      <c r="T11" s="70">
-        <v>0</v>
-      </c>
-      <c r="U11" s="70">
-        <v>0</v>
-      </c>
-      <c r="V11" s="70">
-        <v>0</v>
-      </c>
-      <c r="W11" s="70">
+      <c r="R11" s="69">
+        <v>0</v>
+      </c>
+      <c r="S11" s="69">
+        <v>0</v>
+      </c>
+      <c r="T11" s="69">
+        <v>0</v>
+      </c>
+      <c r="U11" s="69">
+        <v>0</v>
+      </c>
+      <c r="V11" s="69">
+        <v>0</v>
+      </c>
+      <c r="W11" s="69">
         <v>102.417</v>
       </c>
-      <c r="X11" s="70">
+      <c r="X11" s="69">
         <v>773.43399999999997</v>
       </c>
-      <c r="Y11" s="73">
+      <c r="Y11" s="72">
         <v>56.713000000000001</v>
       </c>
-      <c r="Z11" s="73">
+      <c r="Z11" s="72">
         <v>1.66</v>
       </c>
-      <c r="AA11" s="68">
+      <c r="AA11" s="67">
         <v>231.15899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <v>195.499</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>6.6820000000000004</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <v>0.26900000000000002</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="69">
         <v>5.8920000000000003</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>0.52</v>
       </c>
-      <c r="G12" s="70">
-        <v>0</v>
-      </c>
-      <c r="H12" s="70">
-        <v>0</v>
-      </c>
-      <c r="I12" s="70">
-        <v>0</v>
-      </c>
-      <c r="J12" s="70">
-        <v>0</v>
-      </c>
-      <c r="K12" s="70">
-        <v>0</v>
-      </c>
-      <c r="L12" s="68">
+      <c r="G12" s="69">
+        <v>0</v>
+      </c>
+      <c r="H12" s="69">
+        <v>0</v>
+      </c>
+      <c r="I12" s="69">
+        <v>0</v>
+      </c>
+      <c r="J12" s="69">
+        <v>0</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0</v>
+      </c>
+      <c r="L12" s="67">
         <v>157.44900000000001</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="69">
         <v>151.876</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="69">
         <v>5.5730000000000004</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="68">
         <v>31.367999999999999</v>
       </c>
-      <c r="P12" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="70">
+      <c r="P12" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="69">
         <v>31.215</v>
       </c>
-      <c r="R12" s="70">
-        <v>0</v>
-      </c>
-      <c r="S12" s="70">
-        <v>0</v>
-      </c>
-      <c r="T12" s="70">
-        <v>0</v>
-      </c>
-      <c r="U12" s="70">
-        <v>0</v>
-      </c>
-      <c r="V12" s="70">
+      <c r="R12" s="69">
+        <v>0</v>
+      </c>
+      <c r="S12" s="69">
+        <v>0</v>
+      </c>
+      <c r="T12" s="69">
+        <v>0</v>
+      </c>
+      <c r="U12" s="69">
+        <v>0</v>
+      </c>
+      <c r="V12" s="69">
         <v>0.154</v>
       </c>
-      <c r="W12" s="70">
+      <c r="W12" s="69">
         <v>35.887</v>
       </c>
-      <c r="X12" s="70">
+      <c r="X12" s="69">
         <v>1323.4849999999999</v>
       </c>
-      <c r="Y12" s="73">
+      <c r="Y12" s="72">
         <v>6.1059999999999999</v>
       </c>
-      <c r="Z12" s="73">
+      <c r="Z12" s="72">
         <v>0.29399999999999998</v>
       </c>
-      <c r="AA12" s="68">
+      <c r="AA12" s="67">
         <v>176.321</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>11.552</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="75">
         <v>1.179</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="76">
         <v>0.374</v>
       </c>
-      <c r="E13" s="77">
-        <v>0</v>
-      </c>
-      <c r="F13" s="77">
+      <c r="E13" s="76">
+        <v>0</v>
+      </c>
+      <c r="F13" s="76">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G13" s="77">
-        <v>0</v>
-      </c>
-      <c r="H13" s="77">
-        <v>0</v>
-      </c>
-      <c r="I13" s="77">
-        <v>0</v>
-      </c>
-      <c r="J13" s="77">
-        <v>0</v>
-      </c>
-      <c r="K13" s="77">
-        <v>0</v>
-      </c>
-      <c r="L13" s="76">
+      <c r="G13" s="76">
+        <v>0</v>
+      </c>
+      <c r="H13" s="76">
+        <v>0</v>
+      </c>
+      <c r="I13" s="76">
+        <v>0</v>
+      </c>
+      <c r="J13" s="76">
+        <v>0</v>
+      </c>
+      <c r="K13" s="76">
+        <v>0</v>
+      </c>
+      <c r="L13" s="75">
         <v>10.372999999999999</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="76">
         <v>10.372999999999999</v>
       </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="78">
-        <v>0</v>
-      </c>
-      <c r="P13" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>0</v>
-      </c>
-      <c r="R13" s="77">
-        <v>0</v>
-      </c>
-      <c r="S13" s="77">
-        <v>0</v>
-      </c>
-      <c r="T13" s="77">
-        <v>0</v>
-      </c>
-      <c r="U13" s="77">
-        <v>0</v>
-      </c>
-      <c r="V13" s="77">
-        <v>0</v>
-      </c>
-      <c r="W13" s="77">
-        <v>0</v>
-      </c>
-      <c r="X13" s="77">
+      <c r="N13" s="76">
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+      <c r="P13" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="76">
+        <v>0</v>
+      </c>
+      <c r="R13" s="76">
+        <v>0</v>
+      </c>
+      <c r="S13" s="76">
+        <v>0</v>
+      </c>
+      <c r="T13" s="76">
+        <v>0</v>
+      </c>
+      <c r="U13" s="76">
+        <v>0</v>
+      </c>
+      <c r="V13" s="76">
+        <v>0</v>
+      </c>
+      <c r="W13" s="76">
+        <v>0</v>
+      </c>
+      <c r="X13" s="76">
         <v>227.40799999999999</v>
       </c>
-      <c r="Y13" s="79">
+      <c r="Y13" s="78">
         <v>1.548</v>
       </c>
-      <c r="Z13" s="79">
+      <c r="Z13" s="78">
         <v>18.143000000000001</v>
       </c>
-      <c r="AA13" s="77">
+      <c r="AA13" s="76">
         <v>40.418999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="47" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="48" t="s">
+      <c r="X17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="49" t="s">
+      <c r="Y17" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Z17" s="49" t="s">
+      <c r="Z17" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AA17" s="50" t="s">
+      <c r="AA17" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A18" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="52" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="52" t="s">
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56" t="s">
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="60" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="60" t="s">
+      <c r="L19" s="57"/>
+      <c r="M19" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="O19" s="61"/>
-      <c r="P19" s="60" t="s">
+      <c r="O19" s="60"/>
+      <c r="P19" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" s="60" t="s">
+      <c r="Q19" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="60" t="s">
+      <c r="R19" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="60" t="s">
+      <c r="S19" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="60" t="s">
+      <c r="T19" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="V19" s="60" t="s">
+      <c r="V19" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="62"/>
-    </row>
-    <row r="20" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="64" t="s">
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="61"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="86"/>
+      <c r="B20" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="66" t="s">
+      <c r="P20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="66" t="s">
+      <c r="R20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="S20" s="66" t="s">
+      <c r="S20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T20" s="66" t="s">
+      <c r="T20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="66" t="s">
+      <c r="U20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="V20" s="66" t="s">
+      <c r="V20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="W20" s="66" t="s">
+      <c r="W20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X20" s="66" t="s">
+      <c r="X20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Y20" s="66" t="s">
+      <c r="Y20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Z20" s="66" t="s">
+      <c r="Z20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" s="65" t="s">
+      <c r="AA20" s="64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="67">
         <v>249.952</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="67">
         <v>173.834</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <v>66.930999999999997</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>2.4079999999999999</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="67">
         <v>98.216999999999999</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <v>0.35</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="67">
         <v>2.4E-2</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="67">
         <v>5.9039999999999999</v>
       </c>
-      <c r="J21" s="68">
-        <v>0</v>
-      </c>
-      <c r="K21" s="68">
-        <v>0</v>
-      </c>
-      <c r="L21" s="68">
+      <c r="J21" s="67">
+        <v>0</v>
+      </c>
+      <c r="K21" s="67">
+        <v>0</v>
+      </c>
+      <c r="L21" s="67">
         <v>58.973999999999997</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="67">
         <v>37.064</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="67">
         <v>21.91</v>
       </c>
-      <c r="O21" s="69">
+      <c r="O21" s="68">
         <v>17.143999999999998</v>
       </c>
-      <c r="P21" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="68">
+      <c r="P21" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="67">
         <v>11.128</v>
       </c>
-      <c r="R21" s="68">
+      <c r="R21" s="67">
         <v>5.8789999999999996</v>
       </c>
-      <c r="S21" s="68">
-        <v>0</v>
-      </c>
-      <c r="T21" s="68">
-        <v>0</v>
-      </c>
-      <c r="U21" s="68">
-        <v>0</v>
-      </c>
-      <c r="V21" s="68">
+      <c r="S21" s="67">
+        <v>0</v>
+      </c>
+      <c r="T21" s="67">
+        <v>0</v>
+      </c>
+      <c r="U21" s="67">
+        <v>0</v>
+      </c>
+      <c r="V21" s="67">
         <v>0.13800000000000001</v>
       </c>
-      <c r="W21" s="68">
+      <c r="W21" s="67">
         <v>160.059</v>
       </c>
-      <c r="X21" s="70">
+      <c r="X21" s="69">
         <v>229.68899999999999</v>
       </c>
-      <c r="Y21" s="70">
+      <c r="Y21" s="69">
         <v>64.367999999999995</v>
       </c>
-      <c r="Z21" s="70">
+      <c r="Z21" s="69">
         <v>26.428999999999998</v>
       </c>
-      <c r="AA21" s="68">
+      <c r="AA21" s="67">
         <v>730.49699999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="67">
         <v>43.935000000000002</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="67">
         <v>10.906000000000001</v>
       </c>
-      <c r="D22" s="68">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
+      <c r="D22" s="67">
+        <v>0</v>
+      </c>
+      <c r="E22" s="67">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="67">
         <v>4.3090000000000002</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="67">
         <v>0.35</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="67">
         <v>2.4E-2</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="67">
         <v>5.9039999999999999</v>
       </c>
-      <c r="J22" s="68">
-        <v>0</v>
-      </c>
-      <c r="K22" s="68">
-        <v>0</v>
-      </c>
-      <c r="L22" s="68">
+      <c r="J22" s="67">
+        <v>0</v>
+      </c>
+      <c r="K22" s="67">
+        <v>0</v>
+      </c>
+      <c r="L22" s="67">
         <v>19.922000000000001</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="67">
         <v>19.896000000000001</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="67">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O22" s="69">
+      <c r="O22" s="68">
         <v>13.106999999999999</v>
       </c>
-      <c r="P22" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="68">
+      <c r="P22" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="67">
         <v>7.1130000000000004</v>
       </c>
-      <c r="R22" s="68">
+      <c r="R22" s="67">
         <v>5.8789999999999996</v>
       </c>
-      <c r="S22" s="68">
-        <v>0</v>
-      </c>
-      <c r="T22" s="68">
-        <v>0</v>
-      </c>
-      <c r="U22" s="68">
-        <v>0</v>
-      </c>
-      <c r="V22" s="68">
+      <c r="S22" s="67">
+        <v>0</v>
+      </c>
+      <c r="T22" s="67">
+        <v>0</v>
+      </c>
+      <c r="U22" s="67">
+        <v>0</v>
+      </c>
+      <c r="V22" s="67">
         <v>0.115</v>
       </c>
-      <c r="W22" s="68">
+      <c r="W22" s="67">
         <v>13.465</v>
       </c>
-      <c r="X22" s="70">
+      <c r="X22" s="69">
         <v>29.687000000000001</v>
       </c>
-      <c r="Y22" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="70">
+      <c r="Y22" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="69">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AA22" s="68">
+      <c r="AA22" s="67">
         <v>87.905000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A23" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="67">
         <v>180.77699999999999</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="67">
         <v>159.56700000000001</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <v>66.850999999999999</v>
       </c>
-      <c r="E23" s="68">
-        <v>0</v>
-      </c>
-      <c r="F23" s="68">
+      <c r="E23" s="67">
+        <v>0</v>
+      </c>
+      <c r="F23" s="67">
         <v>92.715999999999994</v>
       </c>
-      <c r="G23" s="68">
-        <v>0</v>
-      </c>
-      <c r="H23" s="68">
-        <v>0</v>
-      </c>
-      <c r="I23" s="68">
-        <v>0</v>
-      </c>
-      <c r="J23" s="68">
-        <v>0</v>
-      </c>
-      <c r="K23" s="68">
-        <v>0</v>
-      </c>
-      <c r="L23" s="68">
+      <c r="G23" s="67">
+        <v>0</v>
+      </c>
+      <c r="H23" s="67">
+        <v>0</v>
+      </c>
+      <c r="I23" s="67">
+        <v>0</v>
+      </c>
+      <c r="J23" s="67">
+        <v>0</v>
+      </c>
+      <c r="K23" s="67">
+        <v>0</v>
+      </c>
+      <c r="L23" s="67">
         <v>21.210999999999999</v>
       </c>
-      <c r="M23" s="68">
-        <v>0</v>
-      </c>
-      <c r="N23" s="68">
+      <c r="M23" s="67">
+        <v>0</v>
+      </c>
+      <c r="N23" s="67">
         <v>21.210999999999999</v>
       </c>
-      <c r="O23" s="69">
-        <v>0</v>
-      </c>
-      <c r="P23" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="68">
-        <v>0</v>
-      </c>
-      <c r="R23" s="68">
-        <v>0</v>
-      </c>
-      <c r="S23" s="68">
-        <v>0</v>
-      </c>
-      <c r="T23" s="68">
-        <v>0</v>
-      </c>
-      <c r="U23" s="68">
-        <v>0</v>
-      </c>
-      <c r="V23" s="68">
-        <v>0</v>
-      </c>
-      <c r="W23" s="68">
+      <c r="O23" s="68">
+        <v>0</v>
+      </c>
+      <c r="P23" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>0</v>
+      </c>
+      <c r="R23" s="67">
+        <v>0</v>
+      </c>
+      <c r="S23" s="67">
+        <v>0</v>
+      </c>
+      <c r="T23" s="67">
+        <v>0</v>
+      </c>
+      <c r="U23" s="67">
+        <v>0</v>
+      </c>
+      <c r="V23" s="67">
+        <v>0</v>
+      </c>
+      <c r="W23" s="67">
         <v>8.2910000000000004</v>
       </c>
-      <c r="X23" s="70">
+      <c r="X23" s="69">
         <v>0.11</v>
       </c>
-      <c r="Y23" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="70">
+      <c r="Y23" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="69">
         <v>5.5140000000000002</v>
       </c>
-      <c r="AA23" s="68">
+      <c r="AA23" s="67">
         <v>194.69200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A24" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="67">
         <v>3.8540000000000001</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>2.2690000000000001</v>
       </c>
-      <c r="D24" s="70">
-        <v>0</v>
-      </c>
-      <c r="E24" s="70">
+      <c r="D24" s="69">
+        <v>0</v>
+      </c>
+      <c r="E24" s="69">
         <v>1.2669999999999999</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <v>1.002</v>
       </c>
-      <c r="G24" s="70">
-        <v>0</v>
-      </c>
-      <c r="H24" s="70">
-        <v>0</v>
-      </c>
-      <c r="I24" s="70">
-        <v>0</v>
-      </c>
-      <c r="J24" s="70">
-        <v>0</v>
-      </c>
-      <c r="K24" s="70">
-        <v>0</v>
-      </c>
-      <c r="L24" s="68">
+      <c r="G24" s="69">
+        <v>0</v>
+      </c>
+      <c r="H24" s="69">
+        <v>0</v>
+      </c>
+      <c r="I24" s="69">
+        <v>0</v>
+      </c>
+      <c r="J24" s="69">
+        <v>0</v>
+      </c>
+      <c r="K24" s="69">
+        <v>0</v>
+      </c>
+      <c r="L24" s="67">
         <v>1.456</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M24" s="69">
         <v>1.3879999999999999</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="69">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="O24" s="69">
+      <c r="O24" s="68">
         <v>0.129</v>
       </c>
-      <c r="P24" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="70">
+      <c r="P24" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="69">
         <v>0.129</v>
       </c>
-      <c r="R24" s="70">
-        <v>0</v>
-      </c>
-      <c r="S24" s="70">
-        <v>0</v>
-      </c>
-      <c r="T24" s="70">
-        <v>0</v>
-      </c>
-      <c r="U24" s="70">
-        <v>0</v>
-      </c>
-      <c r="V24" s="70">
-        <v>0</v>
-      </c>
-      <c r="W24" s="70">
+      <c r="R24" s="69">
+        <v>0</v>
+      </c>
+      <c r="S24" s="69">
+        <v>0</v>
+      </c>
+      <c r="T24" s="69">
+        <v>0</v>
+      </c>
+      <c r="U24" s="69">
+        <v>0</v>
+      </c>
+      <c r="V24" s="69">
+        <v>0</v>
+      </c>
+      <c r="W24" s="69">
         <v>102.417</v>
       </c>
-      <c r="X24" s="70">
+      <c r="X24" s="69">
         <v>66.515000000000001</v>
       </c>
-      <c r="Y24" s="70">
+      <c r="Y24" s="69">
         <v>56.713000000000001</v>
       </c>
-      <c r="Z24" s="70">
+      <c r="Z24" s="69">
         <v>1.66</v>
       </c>
-      <c r="AA24" s="68">
+      <c r="AA24" s="67">
         <v>231.15899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A25" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="67">
         <v>20.213999999999999</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="67">
         <v>0.93</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="69">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="69">
         <v>0.82199999999999995</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="69">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G25" s="70">
-        <v>0</v>
-      </c>
-      <c r="H25" s="70">
-        <v>0</v>
-      </c>
-      <c r="I25" s="70">
-        <v>0</v>
-      </c>
-      <c r="J25" s="70">
-        <v>0</v>
-      </c>
-      <c r="K25" s="70">
-        <v>0</v>
-      </c>
-      <c r="L25" s="68">
+      <c r="G25" s="69">
+        <v>0</v>
+      </c>
+      <c r="H25" s="69">
+        <v>0</v>
+      </c>
+      <c r="I25" s="69">
+        <v>0</v>
+      </c>
+      <c r="J25" s="69">
+        <v>0</v>
+      </c>
+      <c r="K25" s="69">
+        <v>0</v>
+      </c>
+      <c r="L25" s="67">
         <v>15.375999999999999</v>
       </c>
-      <c r="M25" s="70">
+      <c r="M25" s="69">
         <v>14.771000000000001</v>
       </c>
-      <c r="N25" s="70">
+      <c r="N25" s="69">
         <v>0.60499999999999998</v>
       </c>
-      <c r="O25" s="69">
+      <c r="O25" s="68">
         <v>3.9079999999999999</v>
       </c>
-      <c r="P25" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="70">
+      <c r="P25" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="69">
         <v>3.8860000000000001</v>
       </c>
-      <c r="R25" s="70">
-        <v>0</v>
-      </c>
-      <c r="S25" s="70">
-        <v>0</v>
-      </c>
-      <c r="T25" s="70">
-        <v>0</v>
-      </c>
-      <c r="U25" s="70">
-        <v>0</v>
-      </c>
-      <c r="V25" s="70">
+      <c r="R25" s="69">
+        <v>0</v>
+      </c>
+      <c r="S25" s="69">
+        <v>0</v>
+      </c>
+      <c r="T25" s="69">
+        <v>0</v>
+      </c>
+      <c r="U25" s="69">
+        <v>0</v>
+      </c>
+      <c r="V25" s="69">
         <v>2.3E-2</v>
       </c>
-      <c r="W25" s="70">
+      <c r="W25" s="69">
         <v>35.887</v>
       </c>
-      <c r="X25" s="70">
+      <c r="X25" s="69">
         <v>113.82</v>
       </c>
-      <c r="Y25" s="70">
+      <c r="Y25" s="69">
         <v>6.1059999999999999</v>
       </c>
-      <c r="Z25" s="70">
+      <c r="Z25" s="69">
         <v>0.29399999999999998</v>
       </c>
-      <c r="AA25" s="68">
+      <c r="AA25" s="67">
         <v>176.321</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="90" t="s">
+    <row r="26" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="76">
         <v>1.171</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="76">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="76">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E26" s="77">
-        <v>0</v>
-      </c>
-      <c r="F26" s="77">
+      <c r="E26" s="76">
+        <v>0</v>
+      </c>
+      <c r="F26" s="76">
         <v>0.115</v>
       </c>
-      <c r="G26" s="77">
-        <v>0</v>
-      </c>
-      <c r="H26" s="77">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77">
-        <v>0</v>
-      </c>
-      <c r="J26" s="77">
-        <v>0</v>
-      </c>
-      <c r="K26" s="77">
-        <v>0</v>
-      </c>
-      <c r="L26" s="76">
+      <c r="G26" s="76">
+        <v>0</v>
+      </c>
+      <c r="H26" s="76">
+        <v>0</v>
+      </c>
+      <c r="I26" s="76">
+        <v>0</v>
+      </c>
+      <c r="J26" s="76">
+        <v>0</v>
+      </c>
+      <c r="K26" s="76">
+        <v>0</v>
+      </c>
+      <c r="L26" s="75">
         <v>1.0089999999999999</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="76">
         <v>1.0089999999999999</v>
       </c>
-      <c r="N26" s="77">
-        <v>0</v>
-      </c>
-      <c r="O26" s="78">
-        <v>0</v>
-      </c>
-      <c r="P26" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="77">
-        <v>0</v>
-      </c>
-      <c r="R26" s="77">
-        <v>0</v>
-      </c>
-      <c r="S26" s="77">
-        <v>0</v>
-      </c>
-      <c r="T26" s="77">
-        <v>0</v>
-      </c>
-      <c r="U26" s="77">
-        <v>0</v>
-      </c>
-      <c r="V26" s="77">
-        <v>0</v>
-      </c>
-      <c r="W26" s="77">
-        <v>0</v>
-      </c>
-      <c r="X26" s="77">
+      <c r="N26" s="76">
+        <v>0</v>
+      </c>
+      <c r="O26" s="77">
+        <v>0</v>
+      </c>
+      <c r="P26" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="76">
+        <v>0</v>
+      </c>
+      <c r="R26" s="76">
+        <v>0</v>
+      </c>
+      <c r="S26" s="76">
+        <v>0</v>
+      </c>
+      <c r="T26" s="76">
+        <v>0</v>
+      </c>
+      <c r="U26" s="76">
+        <v>0</v>
+      </c>
+      <c r="V26" s="76">
+        <v>0</v>
+      </c>
+      <c r="W26" s="76">
+        <v>0</v>
+      </c>
+      <c r="X26" s="76">
         <v>19.556999999999999</v>
       </c>
-      <c r="Y26" s="77">
+      <c r="Y26" s="76">
         <v>1.548</v>
       </c>
-      <c r="Z26" s="77">
+      <c r="Z26" s="76">
         <v>18.143000000000001</v>
       </c>
-      <c r="AA26" s="77">
+      <c r="AA26" s="76">
         <v>40.418999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="X28" s="91">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X28" s="90">
         <f>X21*$T$1</f>
         <v>2.6712830699999999</v>
       </c>
@@ -8462,271 +8539,271 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="93"/>
+      <c r="F2" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="94" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="93" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="93" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="93" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="93" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="93" t="s">
         <v>115</v>
       </c>
     </row>

--- a/[나인와트] 건물별 전력데이터/나인와트vs세움터.xlsx
+++ b/[나인와트] 건물별 전력데이터/나인와트vs세움터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeon\Desktop\[GRI] GitHub\platForm\[나인와트] 건물별 전력데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\[나인와트] 건물별 전력데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CDFA1-6F66-4397-90CF-33AB1195CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062B6EDA-30E2-4FCD-8910-28B4C83B7C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A8C89716-2C9C-4723-B830-F831591F7917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A8C89716-2C9C-4723-B830-F831591F7917}"/>
   </bookViews>
   <sheets>
     <sheet name="비교" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,15 +1376,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="백분율" xfId="6" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="쉼표 [0] 3 4" xfId="3" xr:uid="{4EFEAD1A-93DF-4808-BFA8-5AEB0C06AD43}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 48" xfId="2" xr:uid="{68CAABD8-C9E8-4866-B0DD-6056724B554D}"/>
     <cellStyle name="표준_ydb28c" xfId="5" xr:uid="{EEEF50F9-D610-40A6-8147-CF99B4A9EED2}"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1506,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1825,21 +1828,21 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -1862,18 +1865,18 @@
         <v>124.71140912999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="102">
         <f>C5/D5</f>
         <v>0.28690237925788081</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -1894,12 +1897,12 @@
       <c r="C12">
         <v>1.66</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="103">
         <f>'안양시 수급통계'!X28</f>
         <v>2.6712830699999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="102">
         <f>C12/D12</f>
         <v>0.62142422068358338</v>
@@ -1919,19 +1922,19 @@
       <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="3"/>
-    <col min="8" max="8" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08203125" style="3"/>
+    <col min="4" max="4" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="3"/>
+    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1954,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1959,12 +1962,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -1982,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -2000,7 +2003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1996</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>904.45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>1997</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>1016.828</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1998</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>1021.657</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1999</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>1086.405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>2000</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>1159.7639999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>2001</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>1287.9780000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2002</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>1469.5830000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2003</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>1530.6469999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2004</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>1657.98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>2005</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>1784.6079999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>2006</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>1868.35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2007</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>1959.925</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2008</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>2038.7149999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>2009</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>2138.16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>2010</v>
       </c>
@@ -2306,7 +2309,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>2011</v>
       </c>
@@ -2332,7 +2335,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +2361,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2439,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -2514,7 +2517,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>23</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2595,7 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>25</v>
       </c>
@@ -2618,7 +2621,7 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>26</v>
       </c>
@@ -2644,7 +2647,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2673,7 @@
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2699,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
@@ -2748,7 +2751,7 @@
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>2012</v>
       </c>
@@ -2774,7 +2777,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +2829,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>17</v>
       </c>
@@ -2852,7 +2855,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>18</v>
       </c>
@@ -2878,7 +2881,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>19</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>20</v>
       </c>
@@ -2930,7 +2933,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>21</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +3011,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>24</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3063,7 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>26</v>
       </c>
@@ -3086,7 +3089,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>27</v>
       </c>
@@ -3112,7 +3115,7 @@
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>28</v>
       </c>
@@ -3138,7 +3141,7 @@
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>29</v>
       </c>
@@ -3164,7 +3167,7 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>30</v>
       </c>
@@ -3190,7 +3193,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>2013</v>
       </c>
@@ -3216,7 +3219,7 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>15</v>
       </c>
@@ -3242,7 +3245,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3271,7 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>78.951999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>95.962000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>19</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>47.536000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>20</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>94.313999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>87.888999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>578.30600000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
         <v>23</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>130.477</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>24</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>121.52800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>31</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>122.203</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>91.052000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>27</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>94.197000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>28</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>223.387</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>154.90899999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>30</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>38.225000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>2014</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>2437.924</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>365.779</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>32</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>127.503</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>33</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>79.057000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>34</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>97.822999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>35</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>46.06</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>36</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>94.603999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>37</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>66.159000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>38</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>22.068000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>39</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>568.88</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>130.41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>41</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>120.381</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>31</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>121.14100000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
         <v>42</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>91.224999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="s">
         <v>43</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>95.289000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
         <v>44</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>218.14500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
         <v>45</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>154.768</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
         <v>46</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>38.222000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>2015</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>2539.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>15</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>373.31799999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
         <v>32</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>127.259</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
         <v>33</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>81.364000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
         <v>34</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>105.76600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>35</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>48.554000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>36</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>91.070999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>37</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>71.296999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>26.901</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>39</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>573.75400000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>40</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>137.43899999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>41</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>125.696</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>31</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>145.02600000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>42</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>99.444999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>43</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>103.654</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>44</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>230.05799999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>45</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>158.626</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>46</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>39.918999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>2016</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>2645.991</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>377.94799999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>32</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>133.09299999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>33</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>84.451999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>34</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>104.535</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>35</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>51.265999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>36</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>91.117000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>37</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>91.076999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>38</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>29.553000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>39</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>595.61199999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>40</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>139.58000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>41</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>127.78400000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="24" t="s">
         <v>31</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>162.32300000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="24" t="s">
         <v>42</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>105.18</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="24" t="s">
         <v>43</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>108.199</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="24" t="s">
         <v>44</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>236.95500000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="24" t="s">
         <v>45</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>164.20699999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
         <v>46</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>43.064</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>2017</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>2693.652</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
         <v>15</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>372.488</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="24" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>142.48599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="24" t="s">
         <v>33</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>88.960999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="24" t="s">
         <v>34</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>107.983</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
         <v>35</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="24" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>91.522999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
         <v>37</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>75.614999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
         <v>38</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="24" t="s">
         <v>39</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>619.60699999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
         <v>40</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>143.37</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
         <v>41</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>134.31299999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
         <v>31</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>139.86500000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
         <v>42</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>108.99299999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
         <v>43</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>110.104</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
         <v>44</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>256.86099999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
         <v>45</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>170.76900000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
         <v>46</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>45.704000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>2018</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>2783.9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
         <v>15</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>387.48099999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="24" t="s">
         <v>32</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>147.18199999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="24" t="s">
         <v>33</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>92.792000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="24" t="s">
         <v>34</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>110.756</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="24" t="s">
         <v>35</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>54.021999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="24" t="s">
         <v>36</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>98.308999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="24" t="s">
         <v>37</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>83.522999999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="24" t="s">
         <v>38</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>33.637999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>648.26099999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="24" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>151.857</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
         <v>41</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>138.797</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="24" t="s">
         <v>31</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>131.97</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>112.13500000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="24" t="s">
         <v>43</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>112.645</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="24" t="s">
         <v>44</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>259.226</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
         <v>45</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>173.55799999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="24" t="s">
         <v>46</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>47.670999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
         <v>2019</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>2765.7730000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="24" t="s">
         <v>15</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>384.202</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="24" t="s">
         <v>32</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>140.685</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="24" t="s">
         <v>33</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>91.052000000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="24" t="s">
         <v>34</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>107.422</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="24" t="s">
         <v>35</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>53.853999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="24" t="s">
         <v>36</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>99.263999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="24" t="s">
         <v>37</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>81.593000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="24" t="s">
         <v>38</v>
       </c>
@@ -5528,7 +5531,7 @@
         <v>-2.1909999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="24" t="s">
         <v>39</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>689.78599999999994</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="24" t="s">
         <v>40</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>146.02799999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="24" t="s">
         <v>41</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>140.19200000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="24" t="s">
         <v>31</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>132.11000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="24" t="s">
         <v>42</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>110.52200000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="24" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>112.682</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="24" t="s">
         <v>44</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>259.52699999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="24" t="s">
         <v>45</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>1.163E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="26" t="s">
         <v>46</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>47.587000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>2020</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>2495.7930000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="24" t="s">
         <v>47</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>481.517</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="24" t="s">
         <v>16</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>160.28800000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="24" t="s">
         <v>17</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>116.164</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="24" t="s">
         <v>18</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>113.753</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="24" t="s">
         <v>19</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>71.161000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="24" t="s">
         <v>20</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>126.831</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="24" t="s">
         <v>21</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="24" t="s">
         <v>48</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="96" t="s">
         <v>22</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>9.2533629799999986</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="24" t="s">
         <v>23</v>
       </c>
@@ -5973,7 +5976,7 @@
         <v>158.72399999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="24" t="s">
         <v>24</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>157.93100000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="24" t="s">
         <v>25</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>150.61099999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="24" t="s">
         <v>26</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="24" t="s">
         <v>27</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>144.20699999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="24" t="s">
         <v>28</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>217.37299999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="24" t="s">
         <v>29</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>197.04599999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="26" t="s">
         <v>30</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>50.954999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="24">
         <v>2021</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>3398.3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="24" t="s">
         <v>47</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>503.02300000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="24" t="s">
         <v>32</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>170.22399999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="24" t="s">
         <v>33</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>124.53400000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="24" t="s">
         <v>34</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>124.834</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="24" t="s">
         <v>35</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>77.986999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="24" t="s">
         <v>36</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>137.27799999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="24" t="s">
         <v>37</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>73.597999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="24" t="s">
         <v>38</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="24" t="s">
         <v>39</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>835.29300000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="24" t="s">
         <v>40</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>170.37899999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="24" t="s">
         <v>41</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>170.773</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="24" t="s">
         <v>31</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>160.928</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="24" t="s">
         <v>42</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>141.91300000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="24" t="s">
         <v>43</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>166.815</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="24" t="s">
         <v>44</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>234.91</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="24" t="s">
         <v>45</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>209.26900000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="24" t="s">
         <v>46</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>53.540999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="25">
         <v>2022</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>3550.654</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="24" t="s">
         <v>47</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>526.77099999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="24" t="s">
         <v>32</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>175.77600000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="24" t="s">
         <v>33</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>128.86799999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="24" t="s">
         <v>34</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>137.67400000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="24" t="s">
         <v>35</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>81.757999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="24" t="s">
         <v>36</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>147.398</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="24" t="s">
         <v>37</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>77.509</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="24" t="s">
         <v>38</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>45.981000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="24" t="s">
         <v>39</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>860.63800000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="24" t="s">
         <v>40</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>179.57</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="24" t="s">
         <v>41</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>177.988</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="24" t="s">
         <v>31</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>171.45599999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="24" t="s">
         <v>42</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>146.322</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="24" t="s">
         <v>43</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>168.59800000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="24" t="s">
         <v>44</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>246.12799999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="24" t="s">
         <v>45</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>221.20099999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
         <v>46</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>57.017000000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>49</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>51</v>
       </c>
@@ -6864,20 +6867,20 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.33203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.375" style="34" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="34" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="34" customWidth="1"/>
+    <col min="9" max="10" width="10.375" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="34" customWidth="1"/>
-    <col min="12" max="14" width="10.33203125" style="34" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="35" customWidth="1"/>
-    <col min="16" max="26" width="10.33203125" style="34" customWidth="1"/>
+    <col min="12" max="14" width="10.375" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="35" customWidth="1"/>
+    <col min="16" max="26" width="10.375" style="34" customWidth="1"/>
     <col min="27" max="16384" width="10.75" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>1.163E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -6920,7 +6923,7 @@
       <c r="Z2" s="38"/>
       <c r="AA2" s="38"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6949,7 +6952,7 @@
       <c r="Z3" s="40"/>
       <c r="AA3" s="40"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>56</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>63</v>
       </c>
@@ -7030,7 +7033,7 @@
       <c r="Z5" s="56"/>
       <c r="AA5" s="57"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>68</v>
       </c>
@@ -7095,7 +7098,7 @@
       <c r="Z6" s="55"/>
       <c r="AA6" s="61"/>
     </row>
-    <row r="7" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62"/>
       <c r="B7" s="63" t="s">
         <v>86</v>
@@ -7176,7 +7179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="70" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>89</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>730.49699999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>90</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>87.905000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>91</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>194.69200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>92</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>231.15899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>93</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>176.321</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74" t="s">
         <v>94</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>40.418999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -7703,7 +7706,7 @@
       <c r="Z14" s="79"/>
       <c r="AA14" s="79"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
@@ -7732,7 +7735,7 @@
       <c r="Z15" s="81"/>
       <c r="AA15" s="81"/>
     </row>
-    <row r="16" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -7761,7 +7764,7 @@
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="83" t="s">
         <v>56</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>63</v>
       </c>
@@ -7842,7 +7845,7 @@
       <c r="Z18" s="56"/>
       <c r="AA18" s="57"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>96</v>
       </c>
@@ -7907,7 +7910,7 @@
       <c r="Z19" s="55"/>
       <c r="AA19" s="61"/>
     </row>
-    <row r="20" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="86"/>
       <c r="B20" s="63" t="s">
         <v>87</v>
@@ -7988,7 +7991,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="87" t="s">
         <v>89</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>730.49699999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="88" t="s">
         <v>90</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>87.905000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="88" t="s">
         <v>91</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>194.69200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="88" t="s">
         <v>92</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>231.15899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="88" t="s">
         <v>93</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>176.321</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="89" t="s">
         <v>94</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>40.418999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="80"/>
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
@@ -8515,7 +8518,7 @@
       <c r="Z27" s="81"/>
       <c r="AA27" s="81"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X28" s="90">
         <f>X21*$T$1</f>
         <v>2.6712830699999999</v>
@@ -8539,19 +8542,19 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>100</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>104</v>
       </c>
@@ -8599,7 +8602,7 @@
       </c>
       <c r="I2" s="93"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="92" t="s">
         <v>107</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
         <v>110</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
         <v>113</v>
       </c>
@@ -8677,7 +8680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
         <v>116</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="92" t="s">
         <v>120</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="92" t="s">
         <v>123</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="92" t="s">
         <v>125</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="92" t="s">
         <v>127</v>
       </c>
